--- a/accidentes.xlsx
+++ b/accidentes.xlsx
@@ -5,29 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Maestria\Inteligencia de Negocios\Proyecto\Proyecto 1\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\Maestria\Inteligencia de Negocios\Proyecto\Proyecto 1\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
-    <sheet name="accidentes" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="accidentes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">accidentes!$A$1:$E$1068</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">accidentes!$A$1:$E$1068</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="17">
   <si>
     <t>id_accidente</t>
   </si>
@@ -78,153 +73,6 @@
   </si>
   <si>
     <t>torax</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Total esqguince</t>
-  </si>
-  <si>
-    <t>Total fractura</t>
-  </si>
-  <si>
-    <t>Total herida</t>
-  </si>
-  <si>
-    <t>Total lesiones multiples</t>
-  </si>
-  <si>
-    <t>Total luxacion</t>
-  </si>
-  <si>
-    <t>Total trauma superficial</t>
-  </si>
-  <si>
-    <t>espalda - luxacion</t>
-  </si>
-  <si>
-    <t>ojo - lesiones multiples</t>
-  </si>
-  <si>
-    <t>ojo - trauma superficial</t>
-  </si>
-  <si>
-    <t>pie - herida</t>
-  </si>
-  <si>
-    <t>cabeza - fractura</t>
-  </si>
-  <si>
-    <t>abdomen - esqguince</t>
-  </si>
-  <si>
-    <t>abdomen - trauma superficial</t>
-  </si>
-  <si>
-    <t>mano - luxacion</t>
-  </si>
-  <si>
-    <t>cabeza - esqguince</t>
-  </si>
-  <si>
-    <t>pie - trauma superficial</t>
-  </si>
-  <si>
-    <t>ojo - fractura</t>
-  </si>
-  <si>
-    <t>espalda - lesiones multiples</t>
-  </si>
-  <si>
-    <t>torax - herida</t>
-  </si>
-  <si>
-    <t>abdomen - herida</t>
-  </si>
-  <si>
-    <t>abdomen - fractura</t>
-  </si>
-  <si>
-    <t>mano - fractura</t>
-  </si>
-  <si>
-    <t>ojo - herida</t>
-  </si>
-  <si>
-    <t>mano - trauma superficial</t>
-  </si>
-  <si>
-    <t>pie - fractura</t>
-  </si>
-  <si>
-    <t>torax - esqguince</t>
-  </si>
-  <si>
-    <t>abdomen - luxacion</t>
-  </si>
-  <si>
-    <t>abdomen - lesiones multiples</t>
-  </si>
-  <si>
-    <t>pie - esqguince</t>
-  </si>
-  <si>
-    <t>mano - herida</t>
-  </si>
-  <si>
-    <t>mano - lesiones multiples</t>
-  </si>
-  <si>
-    <t>torax - lesiones multiples</t>
-  </si>
-  <si>
-    <t>torax - luxacion</t>
-  </si>
-  <si>
-    <t>cabeza - herida</t>
-  </si>
-  <si>
-    <t>espalda - herida</t>
-  </si>
-  <si>
-    <t>pie - lesiones multiples</t>
-  </si>
-  <si>
-    <t>torax - trauma superficial</t>
-  </si>
-  <si>
-    <t>pie - luxacion</t>
-  </si>
-  <si>
-    <t>espalda - trauma superficial</t>
-  </si>
-  <si>
-    <t>cabeza - trauma superficial</t>
-  </si>
-  <si>
-    <t>cabeza - luxacion</t>
-  </si>
-  <si>
-    <t>cabeza - lesiones multiples</t>
-  </si>
-  <si>
-    <t>espalda - fractura</t>
-  </si>
-  <si>
-    <t>torax - fractura</t>
-  </si>
-  <si>
-    <t>ojo - esqguince</t>
-  </si>
-  <si>
-    <t>ojo - luxacion</t>
-  </si>
-  <si>
-    <t>mano - esqguince</t>
-  </si>
-  <si>
-    <t>espalda - esqguince</t>
   </si>
 </sst>
 </file>
@@ -708,9 +556,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,6656 +614,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="44293.852507175929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1067">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1068" sheet="accidentes"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="id_accidente" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1067"/>
-    </cacheField>
-    <cacheField name="id_trabajador" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3000"/>
-    </cacheField>
-    <cacheField name="parte_del_cuerpo" numFmtId="0">
-      <sharedItems count="7">
-        <s v="espalda"/>
-        <s v="ojo"/>
-        <s v="pie"/>
-        <s v="cabeza"/>
-        <s v="abdomen"/>
-        <s v="mano"/>
-        <s v="torax"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="lesion" numFmtId="0">
-      <sharedItems count="6">
-        <s v="luxacion"/>
-        <s v="lesiones multiples"/>
-        <s v="trauma superficial"/>
-        <s v="herida"/>
-        <s v="fractura"/>
-        <s v="esqguince"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1067">
-  <r>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <n v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="7"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="8"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="10"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="11"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <n v="14"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="15"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <n v="16"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="23"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="24"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <n v="25"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="28"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="33"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <n v="34"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="35"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <n v="39"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <n v="40"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <n v="42"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <n v="43"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <n v="49"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <n v="58"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <n v="62"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <n v="67"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="68"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <n v="72"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <n v="73"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <n v="74"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <n v="76"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <n v="77"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <n v="78"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <n v="80"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <n v="84"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <n v="86"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <n v="94"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <n v="95"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <n v="96"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <n v="97"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <n v="103"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <n v="117"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <n v="120"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <n v="126"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <n v="130"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <n v="134"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <n v="137"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <n v="138"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <n v="139"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <n v="140"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <n v="141"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <n v="143"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <n v="145"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <n v="146"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <n v="151"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <n v="157"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <n v="158"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <n v="160"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <n v="163"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <n v="164"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <n v="166"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <n v="168"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <n v="170"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <n v="171"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <n v="172"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <n v="178"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <n v="180"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <n v="181"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <n v="182"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <n v="184"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <n v="187"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <n v="188"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="193"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="198"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <n v="201"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <n v="202"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <n v="213"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="214"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="217"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="218"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="221"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="225"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="228"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="229"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="231"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="234"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="235"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="239"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="242"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="247"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="248"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="249"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="252"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="255"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="257"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="259"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="264"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="267"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <n v="269"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <n v="271"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <n v="277"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <n v="278"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <n v="280"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <n v="283"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <n v="287"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <n v="289"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <n v="292"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <n v="297"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <n v="298"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <n v="300"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <n v="301"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <n v="302"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <n v="305"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <n v="312"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <n v="318"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <n v="320"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <n v="322"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <n v="325"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <n v="326"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <n v="327"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <n v="329"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <n v="331"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <n v="333"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <n v="335"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <n v="336"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <n v="338"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <n v="340"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <n v="343"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <n v="345"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <n v="346"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <n v="347"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <n v="355"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <n v="358"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <n v="359"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <n v="360"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <n v="361"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <n v="366"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <n v="368"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <n v="370"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <n v="373"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <n v="375"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <n v="376"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <n v="377"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <n v="378"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <n v="380"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <n v="382"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <n v="387"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <n v="389"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <n v="395"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <n v="399"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <n v="400"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <n v="407"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <n v="408"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <n v="409"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <n v="412"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <n v="417"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <n v="422"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <n v="424"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <n v="427"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <n v="428"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <n v="430"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <n v="431"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <n v="433"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <n v="435"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <n v="436"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <n v="437"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <n v="439"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <n v="446"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <n v="447"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <n v="450"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <n v="454"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <n v="459"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <n v="460"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <n v="462"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <n v="463"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <n v="464"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <n v="465"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <n v="468"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <n v="470"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <n v="472"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <n v="474"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <n v="476"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <n v="477"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <n v="478"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <n v="480"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <n v="482"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <n v="486"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <n v="487"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <n v="489"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <n v="493"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <n v="494"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <n v="495"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <n v="500"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <n v="501"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <n v="502"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <n v="505"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <n v="507"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <n v="510"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <n v="526"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <n v="527"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <n v="528"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <n v="531"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <n v="532"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <n v="537"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <n v="538"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <n v="539"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <n v="542"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <n v="544"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <n v="550"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <n v="557"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <n v="559"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <n v="569"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <n v="570"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <n v="573"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <n v="579"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <n v="584"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <n v="589"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <n v="595"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <n v="597"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <n v="600"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <n v="601"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <n v="602"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <n v="606"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <n v="610"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="223"/>
-    <n v="611"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <n v="617"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <n v="625"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <n v="626"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <n v="627"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="228"/>
-    <n v="628"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <n v="630"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <n v="631"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <n v="634"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <n v="635"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <n v="636"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <n v="637"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <n v="640"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <n v="642"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <n v="646"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="238"/>
-    <n v="650"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <n v="654"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <n v="660"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <n v="665"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <n v="667"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <n v="671"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <n v="673"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <n v="677"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <n v="681"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <n v="683"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <n v="684"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="249"/>
-    <n v="687"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <n v="691"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <n v="694"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <n v="695"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <n v="701"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <n v="704"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <n v="706"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <n v="707"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <n v="713"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <n v="715"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <n v="716"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <n v="718"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <n v="720"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <n v="721"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <n v="724"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <n v="727"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <n v="728"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <n v="729"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <n v="733"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <n v="739"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="269"/>
-    <n v="741"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="270"/>
-    <n v="743"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <n v="745"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <n v="748"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <n v="752"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <n v="753"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <n v="755"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <n v="756"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <n v="759"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <n v="762"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <n v="763"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="280"/>
-    <n v="764"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <n v="766"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <n v="767"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <n v="768"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="284"/>
-    <n v="769"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <n v="770"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <n v="789"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <n v="791"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <n v="794"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <n v="799"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <n v="802"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <n v="803"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <n v="805"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="293"/>
-    <n v="808"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <n v="809"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="295"/>
-    <n v="811"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <n v="814"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <n v="820"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <n v="821"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="299"/>
-    <n v="822"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <n v="825"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <n v="836"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <n v="837"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <n v="838"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="304"/>
-    <n v="846"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <n v="847"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <n v="852"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <n v="854"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <n v="859"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <n v="863"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <n v="868"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <n v="874"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <n v="877"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <n v="880"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <n v="883"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="315"/>
-    <n v="885"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <n v="887"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <n v="891"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <n v="893"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <n v="895"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <n v="896"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <n v="899"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <n v="900"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <n v="901"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <n v="904"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <n v="905"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <n v="906"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <n v="907"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <n v="909"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="329"/>
-    <n v="911"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <n v="923"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <n v="926"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="332"/>
-    <n v="927"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <n v="928"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <n v="936"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="335"/>
-    <n v="938"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <n v="939"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <n v="941"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <n v="943"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="339"/>
-    <n v="944"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <n v="947"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <n v="950"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <n v="952"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="343"/>
-    <n v="959"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <n v="961"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <n v="963"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <n v="964"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <n v="965"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="348"/>
-    <n v="966"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <n v="974"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <n v="975"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <n v="977"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <n v="978"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <n v="980"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <n v="983"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <n v="984"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <n v="985"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <n v="988"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <n v="989"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <n v="992"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <n v="993"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <n v="994"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <n v="995"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="363"/>
-    <n v="1001"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="364"/>
-    <n v="1002"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="365"/>
-    <n v="1005"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <n v="1007"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <n v="1008"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <n v="1011"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <n v="1013"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <n v="1014"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <n v="1016"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <n v="1017"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <n v="1018"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <n v="1019"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <n v="1021"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <n v="1022"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <n v="1024"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <n v="1027"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <n v="1032"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <n v="1040"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <n v="1042"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <n v="1044"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="383"/>
-    <n v="1048"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <n v="1049"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <n v="1050"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <n v="1051"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <n v="1052"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <n v="1057"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <n v="1065"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <n v="1068"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <n v="1076"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="392"/>
-    <n v="1079"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="393"/>
-    <n v="1092"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <n v="1094"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <n v="1096"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="396"/>
-    <n v="1099"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <n v="1108"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <n v="1109"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <n v="1113"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <n v="1115"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <n v="1118"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <n v="1119"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <n v="1124"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="404"/>
-    <n v="1129"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <n v="1133"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <n v="1143"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <n v="1144"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <n v="1147"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <n v="1149"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="410"/>
-    <n v="1150"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="411"/>
-    <n v="1154"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <n v="1155"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <n v="1160"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <n v="1161"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="415"/>
-    <n v="1164"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="416"/>
-    <n v="1165"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="417"/>
-    <n v="1167"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="418"/>
-    <n v="1168"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="419"/>
-    <n v="1169"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="420"/>
-    <n v="1173"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="421"/>
-    <n v="1176"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="422"/>
-    <n v="1177"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="423"/>
-    <n v="1180"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="424"/>
-    <n v="1183"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="425"/>
-    <n v="1184"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="426"/>
-    <n v="1185"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="427"/>
-    <n v="1187"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="428"/>
-    <n v="1189"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="429"/>
-    <n v="1195"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="430"/>
-    <n v="1197"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="431"/>
-    <n v="1200"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="432"/>
-    <n v="1202"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="433"/>
-    <n v="1204"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="434"/>
-    <n v="1206"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="435"/>
-    <n v="1209"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="436"/>
-    <n v="1211"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="437"/>
-    <n v="1214"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="438"/>
-    <n v="1219"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="439"/>
-    <n v="1220"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="440"/>
-    <n v="1221"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="441"/>
-    <n v="1232"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="442"/>
-    <n v="1237"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="443"/>
-    <n v="1238"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="444"/>
-    <n v="1241"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="445"/>
-    <n v="1243"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="446"/>
-    <n v="1245"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="447"/>
-    <n v="1247"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="448"/>
-    <n v="1248"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="449"/>
-    <n v="1250"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="450"/>
-    <n v="1254"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="451"/>
-    <n v="1255"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="452"/>
-    <n v="1256"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="453"/>
-    <n v="1259"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="454"/>
-    <n v="1260"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="455"/>
-    <n v="1261"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="456"/>
-    <n v="1262"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="457"/>
-    <n v="1263"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="458"/>
-    <n v="1268"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="459"/>
-    <n v="1272"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="460"/>
-    <n v="1274"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="461"/>
-    <n v="1275"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="462"/>
-    <n v="1278"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="463"/>
-    <n v="1279"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="464"/>
-    <n v="1282"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="465"/>
-    <n v="1283"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="466"/>
-    <n v="1286"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="467"/>
-    <n v="1297"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="468"/>
-    <n v="1304"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="469"/>
-    <n v="1305"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="470"/>
-    <n v="1307"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="471"/>
-    <n v="1312"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="472"/>
-    <n v="1314"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="473"/>
-    <n v="1320"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="474"/>
-    <n v="1323"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="475"/>
-    <n v="1327"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="476"/>
-    <n v="1328"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="477"/>
-    <n v="1329"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="478"/>
-    <n v="1330"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="479"/>
-    <n v="1334"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="480"/>
-    <n v="1340"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="481"/>
-    <n v="1341"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="482"/>
-    <n v="1343"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="483"/>
-    <n v="1344"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="484"/>
-    <n v="1345"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="485"/>
-    <n v="1347"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="486"/>
-    <n v="1349"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="487"/>
-    <n v="1350"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="488"/>
-    <n v="1352"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="489"/>
-    <n v="1353"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="490"/>
-    <n v="1355"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="491"/>
-    <n v="1365"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="492"/>
-    <n v="1372"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="493"/>
-    <n v="1373"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="494"/>
-    <n v="1376"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="495"/>
-    <n v="1379"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="496"/>
-    <n v="1381"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="497"/>
-    <n v="1385"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="498"/>
-    <n v="1387"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="499"/>
-    <n v="1389"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="500"/>
-    <n v="1394"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="501"/>
-    <n v="1397"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="502"/>
-    <n v="1401"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="503"/>
-    <n v="1405"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="504"/>
-    <n v="1407"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="505"/>
-    <n v="1414"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="506"/>
-    <n v="1416"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="507"/>
-    <n v="1420"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="508"/>
-    <n v="1423"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="509"/>
-    <n v="1425"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="510"/>
-    <n v="1427"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="511"/>
-    <n v="1430"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="512"/>
-    <n v="1431"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="513"/>
-    <n v="1432"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="514"/>
-    <n v="1434"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="515"/>
-    <n v="1436"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="516"/>
-    <n v="1437"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="517"/>
-    <n v="1440"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="518"/>
-    <n v="1442"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="519"/>
-    <n v="1443"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="520"/>
-    <n v="1444"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="521"/>
-    <n v="1446"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="522"/>
-    <n v="1449"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="523"/>
-    <n v="1460"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="524"/>
-    <n v="1462"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="525"/>
-    <n v="1468"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="526"/>
-    <n v="1471"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="527"/>
-    <n v="1473"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="528"/>
-    <n v="1474"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="529"/>
-    <n v="1475"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="530"/>
-    <n v="1477"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="531"/>
-    <n v="1480"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="532"/>
-    <n v="1481"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="533"/>
-    <n v="1482"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="534"/>
-    <n v="1489"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="535"/>
-    <n v="1490"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="536"/>
-    <n v="1492"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="537"/>
-    <n v="1494"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="538"/>
-    <n v="1495"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="539"/>
-    <n v="1498"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="540"/>
-    <n v="1500"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="541"/>
-    <n v="1501"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="542"/>
-    <n v="1502"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="543"/>
-    <n v="1503"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="544"/>
-    <n v="1507"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="545"/>
-    <n v="1508"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="546"/>
-    <n v="1515"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="547"/>
-    <n v="1517"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="548"/>
-    <n v="1518"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="549"/>
-    <n v="1519"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="550"/>
-    <n v="1521"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="551"/>
-    <n v="1522"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="552"/>
-    <n v="1529"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="553"/>
-    <n v="1533"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="554"/>
-    <n v="1545"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="555"/>
-    <n v="1546"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="556"/>
-    <n v="1548"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="557"/>
-    <n v="1552"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="558"/>
-    <n v="1554"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="559"/>
-    <n v="1560"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="560"/>
-    <n v="1562"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="561"/>
-    <n v="1563"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="562"/>
-    <n v="1566"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="563"/>
-    <n v="1567"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="564"/>
-    <n v="1569"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="565"/>
-    <n v="1573"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="566"/>
-    <n v="1574"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="567"/>
-    <n v="1575"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="568"/>
-    <n v="1578"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="569"/>
-    <n v="1581"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="570"/>
-    <n v="1583"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="571"/>
-    <n v="1584"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="572"/>
-    <n v="1585"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="573"/>
-    <n v="1586"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="574"/>
-    <n v="1589"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="575"/>
-    <n v="1596"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="576"/>
-    <n v="1597"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="577"/>
-    <n v="1599"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="578"/>
-    <n v="1601"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="579"/>
-    <n v="1602"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="580"/>
-    <n v="1614"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="581"/>
-    <n v="1615"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="582"/>
-    <n v="1618"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="583"/>
-    <n v="1621"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="584"/>
-    <n v="1625"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="585"/>
-    <n v="1633"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="586"/>
-    <n v="1634"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="587"/>
-    <n v="1637"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="588"/>
-    <n v="1640"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="589"/>
-    <n v="1641"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="590"/>
-    <n v="1642"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="591"/>
-    <n v="1645"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="592"/>
-    <n v="1646"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="593"/>
-    <n v="1648"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="594"/>
-    <n v="1653"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="595"/>
-    <n v="1660"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="596"/>
-    <n v="1662"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="597"/>
-    <n v="1666"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="598"/>
-    <n v="1667"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="599"/>
-    <n v="1669"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="600"/>
-    <n v="1683"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="601"/>
-    <n v="1686"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="602"/>
-    <n v="1687"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="603"/>
-    <n v="1690"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="604"/>
-    <n v="1691"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="605"/>
-    <n v="1693"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="606"/>
-    <n v="1695"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="607"/>
-    <n v="1699"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="608"/>
-    <n v="1701"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="609"/>
-    <n v="1703"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="610"/>
-    <n v="1704"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="611"/>
-    <n v="1709"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="612"/>
-    <n v="1712"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="613"/>
-    <n v="1716"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="614"/>
-    <n v="1717"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="615"/>
-    <n v="1727"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="616"/>
-    <n v="1730"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="617"/>
-    <n v="1734"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="618"/>
-    <n v="1737"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="619"/>
-    <n v="1739"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="620"/>
-    <n v="1741"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="621"/>
-    <n v="1743"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="622"/>
-    <n v="1748"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="623"/>
-    <n v="1749"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="624"/>
-    <n v="1750"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="625"/>
-    <n v="1754"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="626"/>
-    <n v="1755"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="627"/>
-    <n v="1757"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="628"/>
-    <n v="1764"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="629"/>
-    <n v="1768"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="630"/>
-    <n v="1770"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="631"/>
-    <n v="1774"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="632"/>
-    <n v="1780"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="633"/>
-    <n v="1781"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="634"/>
-    <n v="1784"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="635"/>
-    <n v="1791"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="636"/>
-    <n v="1794"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="637"/>
-    <n v="1801"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="638"/>
-    <n v="1803"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="639"/>
-    <n v="1804"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="640"/>
-    <n v="1805"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="641"/>
-    <n v="1807"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="642"/>
-    <n v="1808"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="643"/>
-    <n v="1810"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="644"/>
-    <n v="1818"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="645"/>
-    <n v="1820"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="646"/>
-    <n v="1821"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="647"/>
-    <n v="1825"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="648"/>
-    <n v="1829"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="649"/>
-    <n v="1833"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="650"/>
-    <n v="1834"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="651"/>
-    <n v="1837"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="652"/>
-    <n v="1839"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="653"/>
-    <n v="1840"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="654"/>
-    <n v="1843"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="655"/>
-    <n v="1844"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="656"/>
-    <n v="1847"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="657"/>
-    <n v="1849"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="658"/>
-    <n v="1850"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="659"/>
-    <n v="1851"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="660"/>
-    <n v="1852"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="661"/>
-    <n v="1855"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="662"/>
-    <n v="1856"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="663"/>
-    <n v="1857"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="664"/>
-    <n v="1859"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="665"/>
-    <n v="1862"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="666"/>
-    <n v="1866"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="667"/>
-    <n v="1867"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="668"/>
-    <n v="1873"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="669"/>
-    <n v="1875"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="670"/>
-    <n v="1877"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="671"/>
-    <n v="1878"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="672"/>
-    <n v="1880"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="673"/>
-    <n v="1882"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="674"/>
-    <n v="1883"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="675"/>
-    <n v="1884"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="676"/>
-    <n v="1886"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="677"/>
-    <n v="1888"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="678"/>
-    <n v="1891"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="679"/>
-    <n v="1892"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="680"/>
-    <n v="1893"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="681"/>
-    <n v="1896"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="682"/>
-    <n v="1898"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="683"/>
-    <n v="1899"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="684"/>
-    <n v="1901"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="685"/>
-    <n v="1903"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="686"/>
-    <n v="1906"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="687"/>
-    <n v="1909"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="688"/>
-    <n v="1911"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="689"/>
-    <n v="1914"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="690"/>
-    <n v="1915"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="691"/>
-    <n v="1917"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="692"/>
-    <n v="1920"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="693"/>
-    <n v="1930"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="694"/>
-    <n v="1933"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="695"/>
-    <n v="1935"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="696"/>
-    <n v="1937"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="697"/>
-    <n v="1943"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="698"/>
-    <n v="1945"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="699"/>
-    <n v="1946"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="700"/>
-    <n v="1948"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="701"/>
-    <n v="1953"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="702"/>
-    <n v="1954"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="703"/>
-    <n v="1959"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="704"/>
-    <n v="1962"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="705"/>
-    <n v="1964"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="706"/>
-    <n v="1965"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="707"/>
-    <n v="1966"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="708"/>
-    <n v="1967"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="709"/>
-    <n v="1969"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="710"/>
-    <n v="1972"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="711"/>
-    <n v="1973"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="712"/>
-    <n v="1974"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="713"/>
-    <n v="1978"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="714"/>
-    <n v="1979"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="715"/>
-    <n v="1982"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="716"/>
-    <n v="1985"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="717"/>
-    <n v="1986"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="718"/>
-    <n v="1988"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="719"/>
-    <n v="1990"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="720"/>
-    <n v="1991"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="721"/>
-    <n v="1995"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="722"/>
-    <n v="1996"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="723"/>
-    <n v="2005"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="724"/>
-    <n v="2008"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="725"/>
-    <n v="2009"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="726"/>
-    <n v="2017"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="727"/>
-    <n v="2029"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="728"/>
-    <n v="2030"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="729"/>
-    <n v="2033"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="730"/>
-    <n v="2036"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="731"/>
-    <n v="2038"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="732"/>
-    <n v="2043"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="733"/>
-    <n v="2044"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="734"/>
-    <n v="2045"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="735"/>
-    <n v="2049"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="736"/>
-    <n v="2050"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="737"/>
-    <n v="2051"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="738"/>
-    <n v="2052"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="739"/>
-    <n v="2053"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="740"/>
-    <n v="2057"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="741"/>
-    <n v="2058"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="742"/>
-    <n v="2061"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="743"/>
-    <n v="2064"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="744"/>
-    <n v="2065"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="745"/>
-    <n v="2066"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="746"/>
-    <n v="2070"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="747"/>
-    <n v="2073"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="748"/>
-    <n v="2077"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="749"/>
-    <n v="2081"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="750"/>
-    <n v="2091"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="751"/>
-    <n v="2094"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="752"/>
-    <n v="2096"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="753"/>
-    <n v="2109"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="754"/>
-    <n v="2111"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="755"/>
-    <n v="2116"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="756"/>
-    <n v="2123"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="757"/>
-    <n v="2126"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="758"/>
-    <n v="2127"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="759"/>
-    <n v="2129"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="760"/>
-    <n v="2131"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="761"/>
-    <n v="2134"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="762"/>
-    <n v="2139"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="763"/>
-    <n v="2140"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="764"/>
-    <n v="2141"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="765"/>
-    <n v="2146"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="766"/>
-    <n v="2148"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="767"/>
-    <n v="2149"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="768"/>
-    <n v="2152"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="769"/>
-    <n v="2153"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="770"/>
-    <n v="2154"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="771"/>
-    <n v="2155"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="772"/>
-    <n v="2157"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="773"/>
-    <n v="2159"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="774"/>
-    <n v="2160"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="775"/>
-    <n v="2162"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="776"/>
-    <n v="2163"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="777"/>
-    <n v="2164"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="778"/>
-    <n v="2167"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="779"/>
-    <n v="2171"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="780"/>
-    <n v="2175"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="781"/>
-    <n v="2180"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="782"/>
-    <n v="2181"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="783"/>
-    <n v="2182"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="784"/>
-    <n v="2185"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="785"/>
-    <n v="2188"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="786"/>
-    <n v="2195"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="787"/>
-    <n v="2201"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="788"/>
-    <n v="2202"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="789"/>
-    <n v="2204"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="790"/>
-    <n v="2206"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="791"/>
-    <n v="2212"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="792"/>
-    <n v="2213"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="793"/>
-    <n v="2217"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="794"/>
-    <n v="2222"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="795"/>
-    <n v="2231"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="796"/>
-    <n v="2233"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="797"/>
-    <n v="2234"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="798"/>
-    <n v="2236"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="799"/>
-    <n v="2237"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="800"/>
-    <n v="2238"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="801"/>
-    <n v="2239"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="802"/>
-    <n v="2241"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="803"/>
-    <n v="2247"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="804"/>
-    <n v="2248"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="805"/>
-    <n v="2250"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="806"/>
-    <n v="2255"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="807"/>
-    <n v="2260"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="808"/>
-    <n v="2261"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="809"/>
-    <n v="2262"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="810"/>
-    <n v="2265"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="811"/>
-    <n v="2275"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="812"/>
-    <n v="2279"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="813"/>
-    <n v="2285"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="814"/>
-    <n v="2286"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="815"/>
-    <n v="2288"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="816"/>
-    <n v="2291"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="817"/>
-    <n v="2293"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="818"/>
-    <n v="2302"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="819"/>
-    <n v="2308"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="820"/>
-    <n v="2309"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="821"/>
-    <n v="2310"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="822"/>
-    <n v="2322"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="823"/>
-    <n v="2323"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="824"/>
-    <n v="2324"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="825"/>
-    <n v="2326"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="826"/>
-    <n v="2329"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="827"/>
-    <n v="2330"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="828"/>
-    <n v="2332"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="829"/>
-    <n v="2333"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="830"/>
-    <n v="2334"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="831"/>
-    <n v="2336"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="832"/>
-    <n v="2337"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="833"/>
-    <n v="2338"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="834"/>
-    <n v="2343"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="835"/>
-    <n v="2345"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="836"/>
-    <n v="2346"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="837"/>
-    <n v="2351"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="838"/>
-    <n v="2353"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="839"/>
-    <n v="2355"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="840"/>
-    <n v="2357"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="841"/>
-    <n v="2358"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="842"/>
-    <n v="2360"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="843"/>
-    <n v="2362"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="844"/>
-    <n v="2364"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="845"/>
-    <n v="2367"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="846"/>
-    <n v="2372"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="847"/>
-    <n v="2376"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="848"/>
-    <n v="2377"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="849"/>
-    <n v="2379"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="850"/>
-    <n v="2381"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="851"/>
-    <n v="2389"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="852"/>
-    <n v="2390"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="853"/>
-    <n v="2392"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="854"/>
-    <n v="2396"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="855"/>
-    <n v="2397"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="856"/>
-    <n v="2399"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="857"/>
-    <n v="2402"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="858"/>
-    <n v="2403"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="859"/>
-    <n v="2404"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="860"/>
-    <n v="2408"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="861"/>
-    <n v="2412"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="862"/>
-    <n v="2413"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="863"/>
-    <n v="2414"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="864"/>
-    <n v="2418"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="865"/>
-    <n v="2420"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="866"/>
-    <n v="2422"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="867"/>
-    <n v="2425"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="868"/>
-    <n v="2426"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="869"/>
-    <n v="2429"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="870"/>
-    <n v="2435"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="871"/>
-    <n v="2438"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="872"/>
-    <n v="2442"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="873"/>
-    <n v="2446"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="874"/>
-    <n v="2447"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="875"/>
-    <n v="2450"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="876"/>
-    <n v="2454"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="877"/>
-    <n v="2455"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="878"/>
-    <n v="2457"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="879"/>
-    <n v="2462"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="880"/>
-    <n v="2466"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="881"/>
-    <n v="2471"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="882"/>
-    <n v="2473"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="883"/>
-    <n v="2476"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="884"/>
-    <n v="2481"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="885"/>
-    <n v="2484"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="886"/>
-    <n v="2487"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="887"/>
-    <n v="2490"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="888"/>
-    <n v="2491"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="889"/>
-    <n v="2496"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="890"/>
-    <n v="2497"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="891"/>
-    <n v="2504"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="892"/>
-    <n v="2505"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="893"/>
-    <n v="2507"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="894"/>
-    <n v="2509"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="895"/>
-    <n v="2516"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="896"/>
-    <n v="2517"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="897"/>
-    <n v="2520"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="898"/>
-    <n v="2524"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="899"/>
-    <n v="2526"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="900"/>
-    <n v="2528"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="901"/>
-    <n v="2530"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="902"/>
-    <n v="2531"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="903"/>
-    <n v="2536"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="904"/>
-    <n v="2537"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="905"/>
-    <n v="2539"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="906"/>
-    <n v="2548"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="907"/>
-    <n v="2551"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="908"/>
-    <n v="2553"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="909"/>
-    <n v="2559"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="910"/>
-    <n v="2560"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="911"/>
-    <n v="2561"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="912"/>
-    <n v="2562"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="913"/>
-    <n v="2564"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="914"/>
-    <n v="2567"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="915"/>
-    <n v="2570"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="916"/>
-    <n v="2577"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="917"/>
-    <n v="2578"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="918"/>
-    <n v="2581"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="919"/>
-    <n v="2594"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="920"/>
-    <n v="2595"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="921"/>
-    <n v="2596"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="922"/>
-    <n v="2598"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="923"/>
-    <n v="2602"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="924"/>
-    <n v="2604"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="925"/>
-    <n v="2606"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="926"/>
-    <n v="2607"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="927"/>
-    <n v="2611"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="928"/>
-    <n v="2613"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="929"/>
-    <n v="2614"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="930"/>
-    <n v="2615"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="931"/>
-    <n v="2616"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="932"/>
-    <n v="2620"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="933"/>
-    <n v="2623"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="934"/>
-    <n v="2626"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="935"/>
-    <n v="2629"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="936"/>
-    <n v="2634"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="937"/>
-    <n v="2639"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="938"/>
-    <n v="2644"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="939"/>
-    <n v="2645"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="940"/>
-    <n v="2647"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="941"/>
-    <n v="2654"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="942"/>
-    <n v="2661"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="943"/>
-    <n v="2662"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="944"/>
-    <n v="2664"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="945"/>
-    <n v="2678"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="946"/>
-    <n v="2680"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="947"/>
-    <n v="2684"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="948"/>
-    <n v="2685"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="949"/>
-    <n v="2688"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="950"/>
-    <n v="2689"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="951"/>
-    <n v="2690"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="952"/>
-    <n v="2692"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="953"/>
-    <n v="2693"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="954"/>
-    <n v="2694"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="955"/>
-    <n v="2695"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="956"/>
-    <n v="2700"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="957"/>
-    <n v="2702"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="958"/>
-    <n v="2708"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="959"/>
-    <n v="2713"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="960"/>
-    <n v="2717"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="961"/>
-    <n v="2718"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="962"/>
-    <n v="2719"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="963"/>
-    <n v="2720"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="964"/>
-    <n v="2725"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="965"/>
-    <n v="2726"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="966"/>
-    <n v="2728"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="967"/>
-    <n v="2729"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="968"/>
-    <n v="2730"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="969"/>
-    <n v="2737"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="970"/>
-    <n v="2738"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="971"/>
-    <n v="2740"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="972"/>
-    <n v="2742"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="973"/>
-    <n v="2743"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="974"/>
-    <n v="2748"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="975"/>
-    <n v="2749"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="976"/>
-    <n v="2751"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="977"/>
-    <n v="2752"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="978"/>
-    <n v="2758"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="979"/>
-    <n v="2759"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="980"/>
-    <n v="2760"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="981"/>
-    <n v="2763"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="982"/>
-    <n v="2764"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="983"/>
-    <n v="2766"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="984"/>
-    <n v="2768"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="985"/>
-    <n v="2769"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="986"/>
-    <n v="2770"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="987"/>
-    <n v="2773"/>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="988"/>
-    <n v="2776"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="989"/>
-    <n v="2778"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="990"/>
-    <n v="2782"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="991"/>
-    <n v="2786"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="992"/>
-    <n v="2787"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="993"/>
-    <n v="2789"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="994"/>
-    <n v="2790"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="995"/>
-    <n v="2800"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="996"/>
-    <n v="2801"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="997"/>
-    <n v="2806"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="998"/>
-    <n v="2807"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="999"/>
-    <n v="2808"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1000"/>
-    <n v="2810"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1001"/>
-    <n v="2811"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1002"/>
-    <n v="2812"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1003"/>
-    <n v="2816"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1004"/>
-    <n v="2817"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1005"/>
-    <n v="2818"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1006"/>
-    <n v="2821"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1007"/>
-    <n v="2823"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="1008"/>
-    <n v="2826"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1009"/>
-    <n v="2827"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1010"/>
-    <n v="2828"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="1011"/>
-    <n v="2829"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1012"/>
-    <n v="2830"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1013"/>
-    <n v="2838"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1014"/>
-    <n v="2841"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1015"/>
-    <n v="2844"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1016"/>
-    <n v="2849"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1017"/>
-    <n v="2855"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1018"/>
-    <n v="2858"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1019"/>
-    <n v="2859"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1020"/>
-    <n v="2860"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1021"/>
-    <n v="2862"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1022"/>
-    <n v="2863"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1023"/>
-    <n v="2864"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1024"/>
-    <n v="2869"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1025"/>
-    <n v="2870"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1026"/>
-    <n v="2874"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1027"/>
-    <n v="2876"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1028"/>
-    <n v="2879"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1029"/>
-    <n v="2882"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1030"/>
-    <n v="2888"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1031"/>
-    <n v="2889"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1032"/>
-    <n v="2894"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1033"/>
-    <n v="2896"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1034"/>
-    <n v="2898"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1035"/>
-    <n v="2904"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1036"/>
-    <n v="2906"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1037"/>
-    <n v="2907"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1038"/>
-    <n v="2909"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1039"/>
-    <n v="2912"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1040"/>
-    <n v="2918"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1041"/>
-    <n v="2919"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1042"/>
-    <n v="2922"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1043"/>
-    <n v="2924"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1044"/>
-    <n v="2927"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1045"/>
-    <n v="2928"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1046"/>
-    <n v="2930"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1047"/>
-    <n v="2931"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1048"/>
-    <n v="2934"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1049"/>
-    <n v="2935"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1050"/>
-    <n v="2937"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1051"/>
-    <n v="2940"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1052"/>
-    <n v="2944"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="1053"/>
-    <n v="2949"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1054"/>
-    <n v="2950"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1055"/>
-    <n v="2953"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1056"/>
-    <n v="2954"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1057"/>
-    <n v="2958"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1058"/>
-    <n v="2959"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1059"/>
-    <n v="2963"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1060"/>
-    <n v="2964"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1061"/>
-    <n v="2975"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1062"/>
-    <n v="2978"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="1063"/>
-    <n v="2982"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="1064"/>
-    <n v="2987"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="1065"/>
-    <n v="2992"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="1066"/>
-    <n v="2999"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="1067"/>
-    <n v="3000"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="49">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7682,296 +879,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -22936,232 +15843,4 @@
   <autoFilter ref="A1:E1068"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>